--- a/experiments/ResultTables/public/Cesar №1-to-DSM comparison results.xlsx
+++ b/experiments/ResultTables/public/Cesar №1-to-DSM comparison results.xlsx
@@ -14,314 +14,299 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="147">
   <si>
     <t>GS</t>
   </si>
   <si>
+    <t>SVC</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
     <t>KNN</t>
   </si>
   <si>
-    <t>SVC</t>
-  </si>
-  <si>
-    <t>LR</t>
-  </si>
-  <si>
     <t>RFC</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
+    <t>MinMax</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Robust</t>
+  </si>
+  <si>
     <t>Cesar1</t>
   </si>
   <si>
     <t>DSM</t>
   </si>
   <si>
-    <t>MinMax</t>
-  </si>
-  <si>
-    <t>Robust</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>0,634</t>
-  </si>
-  <si>
-    <t>0,77</t>
+    <t>0,293</t>
+  </si>
+  <si>
+    <t>0,227</t>
+  </si>
+  <si>
+    <t>0,339</t>
+  </si>
+  <si>
+    <t>0,714</t>
+  </si>
+  <si>
+    <t>0,539</t>
+  </si>
+  <si>
+    <t>0,358</t>
+  </si>
+  <si>
+    <t>0,404</t>
+  </si>
+  <si>
+    <t>0,504</t>
+  </si>
+  <si>
+    <t>0,709</t>
+  </si>
+  <si>
+    <t>0,554</t>
+  </si>
+  <si>
+    <t>0,68</t>
+  </si>
+  <si>
+    <t>0,158</t>
+  </si>
+  <si>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>0,411</t>
+  </si>
+  <si>
+    <t>0,357</t>
+  </si>
+  <si>
+    <t>0,348</t>
+  </si>
+  <si>
+    <t>0,087</t>
+  </si>
+  <si>
+    <t>0,079</t>
+  </si>
+  <si>
+    <t>0,057</t>
+  </si>
+  <si>
+    <t>0,027</t>
+  </si>
+  <si>
+    <t>0,023</t>
+  </si>
+  <si>
+    <t>0,066</t>
+  </si>
+  <si>
+    <t>0,05</t>
+  </si>
+  <si>
+    <t>0,043</t>
+  </si>
+  <si>
+    <t>0,022</t>
+  </si>
+  <si>
+    <t>0,063</t>
+  </si>
+  <si>
+    <t>0,046</t>
+  </si>
+  <si>
+    <t>0,101</t>
+  </si>
+  <si>
+    <t>0,054</t>
+  </si>
+  <si>
+    <t>0,06</t>
+  </si>
+  <si>
+    <t>0,037</t>
+  </si>
+  <si>
+    <t>0,679</t>
+  </si>
+  <si>
+    <t>0,603</t>
+  </si>
+  <si>
+    <t>0,402</t>
+  </si>
+  <si>
+    <t>0,064</t>
+  </si>
+  <si>
+    <t>0,094</t>
+  </si>
+  <si>
+    <t>0,374</t>
+  </si>
+  <si>
+    <t>0,254</t>
+  </si>
+  <si>
+    <t>0,2</t>
+  </si>
+  <si>
+    <t>0,238</t>
+  </si>
+  <si>
+    <t>0,873</t>
   </si>
   <si>
     <t>0,288</t>
   </si>
   <si>
-    <t>0,541</t>
-  </si>
-  <si>
-    <t>0,417</t>
-  </si>
-  <si>
-    <t>0,779</t>
-  </si>
-  <si>
-    <t>0,545</t>
-  </si>
-  <si>
-    <t>0,776</t>
-  </si>
-  <si>
-    <t>0,33</t>
-  </si>
-  <si>
-    <t>0,211</t>
-  </si>
-  <si>
-    <t>0,763</t>
-  </si>
-  <si>
-    <t>0,739</t>
-  </si>
-  <si>
-    <t>0,22</t>
-  </si>
-  <si>
-    <t>0,28</t>
-  </si>
-  <si>
-    <t>0,507</t>
-  </si>
-  <si>
-    <t>0,767</t>
-  </si>
-  <si>
-    <t>0,158</t>
-  </si>
-  <si>
-    <t>0,155</t>
-  </si>
-  <si>
-    <t>0,175</t>
-  </si>
-  <si>
-    <t>0,145</t>
-  </si>
-  <si>
-    <t>0,151</t>
-  </si>
-  <si>
-    <t>0,092</t>
-  </si>
-  <si>
-    <t>0,188</t>
-  </si>
-  <si>
-    <t>0,113</t>
-  </si>
-  <si>
-    <t>0,161</t>
-  </si>
-  <si>
-    <t>0,196</t>
-  </si>
-  <si>
-    <t>0,237</t>
-  </si>
-  <si>
-    <t>0,414</t>
-  </si>
-  <si>
-    <t>0,185</t>
-  </si>
-  <si>
-    <t>0,177</t>
+    <t>0,309</t>
+  </si>
+  <si>
+    <t>0,335</t>
+  </si>
+  <si>
+    <t>0,152</t>
   </si>
   <si>
     <t>0,139</t>
   </si>
   <si>
-    <t>0,183</t>
-  </si>
-  <si>
-    <t>0,039</t>
-  </si>
-  <si>
-    <t>0,689</t>
-  </si>
-  <si>
-    <t>0,307</t>
-  </si>
-  <si>
-    <t>0,45</t>
-  </si>
-  <si>
-    <t>0,017</t>
-  </si>
-  <si>
-    <t>0,4</t>
-  </si>
-  <si>
-    <t>0,014</t>
-  </si>
-  <si>
-    <t>0,573</t>
-  </si>
-  <si>
-    <t>0,958</t>
-  </si>
-  <si>
-    <t>0,094</t>
-  </si>
-  <si>
-    <t>0,141</t>
-  </si>
-  <si>
-    <t>0,881</t>
-  </si>
-  <si>
-    <t>0,711</t>
-  </si>
-  <si>
-    <t>0,404</t>
-  </si>
-  <si>
-    <t>0,03</t>
-  </si>
-  <si>
-    <t>0,054</t>
-  </si>
-  <si>
-    <t>0,275</t>
-  </si>
-  <si>
-    <t>0,168</t>
-  </si>
-  <si>
-    <t>0,218</t>
-  </si>
-  <si>
-    <t>0,022</t>
-  </si>
-  <si>
-    <t>0,227</t>
-  </si>
-  <si>
-    <t>0,021</t>
-  </si>
-  <si>
-    <t>0,243</t>
-  </si>
-  <si>
-    <t>0,323</t>
-  </si>
-  <si>
-    <t>0,122</t>
-  </si>
-  <si>
-    <t>0,166</t>
-  </si>
-  <si>
-    <t>0,301</t>
-  </si>
-  <si>
-    <t>0,279</t>
-  </si>
-  <si>
-    <t>0,176</t>
-  </si>
-  <si>
-    <t>0,038</t>
-  </si>
-  <si>
-    <t>0,748</t>
-  </si>
-  <si>
-    <t>0,951</t>
-  </si>
-  <si>
-    <t>0,187</t>
-  </si>
-  <si>
-    <t>0,592</t>
-  </si>
-  <si>
-    <t>0,405</t>
-  </si>
-  <si>
-    <t>0,967</t>
-  </si>
-  <si>
-    <t>0,576</t>
-  </si>
-  <si>
-    <t>0,966</t>
-  </si>
-  <si>
-    <t>0,268</t>
-  </si>
-  <si>
-    <t>0,025</t>
-  </si>
-  <si>
-    <t>0,929</t>
-  </si>
-  <si>
-    <t>0,888</t>
-  </si>
-  <si>
-    <t>0,052</t>
-  </si>
-  <si>
-    <t>0,172</t>
-  </si>
-  <si>
-    <t>0,528</t>
+    <t>0,099</t>
+  </si>
+  <si>
+    <t>0,036</t>
+  </si>
+  <si>
+    <t>0,111</t>
+  </si>
+  <si>
+    <t>0,082</t>
+  </si>
+  <si>
+    <t>0,068</t>
+  </si>
+  <si>
+    <t>0,031</t>
+  </si>
+  <si>
+    <t>0,095</t>
+  </si>
+  <si>
+    <t>0,059</t>
+  </si>
+  <si>
+    <t>0,18</t>
+  </si>
+  <si>
+    <t>0,073</t>
+  </si>
+  <si>
+    <t>0,091</t>
+  </si>
+  <si>
+    <t>0,062</t>
+  </si>
+  <si>
+    <t>0,245</t>
+  </si>
+  <si>
+    <t>0,181</t>
+  </si>
+  <si>
+    <t>0,332</t>
+  </si>
+  <si>
+    <t>0,793</t>
+  </si>
+  <si>
+    <t>0,593</t>
+  </si>
+  <si>
+    <t>0,356</t>
+  </si>
+  <si>
+    <t>0,422</t>
+  </si>
+  <si>
+    <t>0,54</t>
+  </si>
+  <si>
+    <t>0,789</t>
+  </si>
+  <si>
+    <t>0,751</t>
+  </si>
+  <si>
+    <t>0,071</t>
+  </si>
+  <si>
+    <t>0,638</t>
+  </si>
+  <si>
+    <t>0,424</t>
+  </si>
+  <si>
+    <t>0,359</t>
+  </si>
+  <si>
+    <t>0,366</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>100,0</t>
+  </si>
+  <si>
+    <t>1000,0</t>
+  </si>
+  <si>
     <t>1,0</t>
   </si>
   <si>
+    <t>1000000,0</t>
+  </si>
+  <si>
+    <t>100000,0</t>
+  </si>
+  <si>
+    <t>sigmoid</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
     <t>5,0</t>
   </si>
   <si>
-    <t>3,0</t>
-  </si>
-  <si>
-    <t>6,0</t>
-  </si>
-  <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>100,0</t>
-  </si>
-  <si>
-    <t>1000000,0</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>10,0</t>
-  </si>
-  <si>
-    <t>poly</t>
-  </si>
-  <si>
-    <t>linear</t>
-  </si>
-  <si>
-    <t>15,0</t>
+    <t>9,0</t>
+  </si>
+  <si>
+    <t>200,0</t>
   </si>
   <si>
     <t>20,0</t>
   </si>
   <si>
+    <t>500,0</t>
+  </si>
+  <si>
     <t>experiment index</t>
   </si>
   <si>
@@ -340,6 +325,9 @@
     <t>specter_threshold</t>
   </si>
   <si>
+    <t>signal_scaler</t>
+  </si>
+  <si>
     <t>resampling_number</t>
   </si>
   <si>
@@ -349,9 +337,6 @@
     <t>test_dataset_name</t>
   </si>
   <si>
-    <t>signal_scaler</t>
-  </si>
-  <si>
     <t>Scores: accuracy</t>
   </si>
   <si>
@@ -454,16 +439,16 @@
     <t>Statistics: detrended_fluctuation</t>
   </si>
   <si>
+    <t>Hyperparameters: C</t>
+  </si>
+  <si>
+    <t>Hyperparameters: kernel</t>
+  </si>
+  <si>
     <t>Hyperparameters: n_neighbors</t>
   </si>
   <si>
     <t>Hyperparameters: p</t>
-  </si>
-  <si>
-    <t>Hyperparameters: C</t>
-  </si>
-  <si>
-    <t>Hyperparameters: kernel</t>
   </si>
   <si>
     <t>Hyperparameters: max_depth</t>
@@ -874,10 +859,10 @@
     <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="24.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="26.28515625" style="1" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" style="1" customWidth="1"/>
@@ -912,164 +897,164 @@
     <col min="42" max="42" width="39.7109375" style="1" customWidth="1"/>
     <col min="43" max="43" width="29.28515625" style="1" customWidth="1"/>
     <col min="44" max="44" width="50.28515625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="42.7109375" style="1" customWidth="1"/>
-    <col min="46" max="46" width="27.7109375" style="1" customWidth="1"/>
-    <col min="47" max="47" width="27.7109375" style="1" customWidth="1"/>
-    <col min="48" max="48" width="35.28515625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="27.7109375" style="1" customWidth="1"/>
+    <col min="46" max="46" width="35.28515625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="42.7109375" style="1" customWidth="1"/>
+    <col min="48" max="48" width="27.7109375" style="1" customWidth="1"/>
     <col min="49" max="49" width="39.7109375" style="1" customWidth="1"/>
     <col min="50" max="50" width="44.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="2" customFormat="1" ht="22" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:50">
@@ -1091,17 +1076,17 @@
       <c r="F2" s="1">
         <v>500</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
         <v>100</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>11</v>
@@ -1113,31 +1098,31 @@
         <v>42</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>42</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>5</v>
@@ -1206,10 +1191,10 @@
         <v>5</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:50">
@@ -1220,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -1231,17 +1216,17 @@
       <c r="F3" s="1">
         <v>500</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1">
         <v>100</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>12</v>
@@ -1253,31 +1238,31 @@
         <v>43</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>5</v>
@@ -1346,10 +1331,7 @@
         <v>5</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:50">
@@ -1360,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1371,14 +1353,14 @@
       <c r="F4" s="1">
         <v>500</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1">
         <v>100</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>10</v>
@@ -1393,37 +1375,37 @@
         <v>44</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>5</v>
@@ -1432,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>5</v>
@@ -1485,11 +1467,11 @@
       <c r="AR4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AU4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>98</v>
+      <c r="AS4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:50">
@@ -1511,17 +1493,17 @@
       <c r="F5" s="1">
         <v>500</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1">
         <v>100</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>14</v>
@@ -1533,31 +1515,31 @@
         <v>45</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>5</v>
@@ -1626,7 +1608,10 @@
         <v>5</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:50">
@@ -1637,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -1648,14 +1633,11 @@
       <c r="F6" s="1">
         <v>500</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>100</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>10</v>
@@ -1670,100 +1652,103 @@
         <v>46</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>95</v>
+      <c r="AT6" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:50">
@@ -1774,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -1785,17 +1770,17 @@
       <c r="F7" s="1">
         <v>500</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1">
         <v>100</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>16</v>
@@ -1807,37 +1792,37 @@
         <v>47</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>5</v>
@@ -1846,7 +1831,7 @@
         <v>5</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>5</v>
@@ -1899,11 +1884,8 @@
       <c r="AR7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AW7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>101</v>
+      <c r="AS7" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:50">
@@ -1914,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -1925,17 +1907,17 @@
       <c r="F8" s="1">
         <v>500</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
         <v>100</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>17</v>
@@ -1947,31 +1929,31 @@
         <v>48</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>48</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>5</v>
@@ -2039,8 +2021,8 @@
       <c r="AR8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AU8" s="1" t="s">
-        <v>95</v>
+      <c r="AX8" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:50">
@@ -2062,14 +2044,14 @@
       <c r="F9" s="1">
         <v>500</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
         <v>100</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>10</v>
@@ -2084,37 +2066,37 @@
         <v>49</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>5</v>
@@ -2123,7 +2105,7 @@
         <v>5</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AB9" s="1" t="s">
         <v>5</v>
@@ -2177,10 +2159,10 @@
         <v>5</v>
       </c>
       <c r="AW9" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:50">
@@ -2191,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -2202,17 +2184,17 @@
       <c r="F10" s="1">
         <v>500</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1">
         <v>100</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>19</v>
@@ -2221,40 +2203,40 @@
         <v>35</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>5</v>
@@ -2263,7 +2245,7 @@
         <v>5</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="AB10" s="1" t="s">
         <v>5</v>
@@ -2317,10 +2299,10 @@
         <v>5</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:50">
@@ -2342,14 +2324,17 @@
       <c r="F11" s="1">
         <v>500</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1">
         <v>100</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>20</v>
@@ -2358,34 +2343,34 @@
         <v>36</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>5</v>
@@ -2454,7 +2439,10 @@
         <v>5</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
+      </c>
+      <c r="AV11" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:50">
@@ -2465,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
@@ -2476,14 +2464,11 @@
       <c r="F12" s="1">
         <v>500</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>100</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>10</v>
@@ -2495,40 +2480,40 @@
         <v>37</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>5</v>
@@ -2537,7 +2522,7 @@
         <v>5</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>5</v>
@@ -2590,11 +2575,11 @@
       <c r="AR12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AS12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT12" s="1" t="s">
-        <v>92</v>
+      <c r="AU12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV12" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:50">
@@ -2605,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -2616,14 +2601,14 @@
       <c r="F13" s="1">
         <v>500</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>100</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>22</v>
@@ -2632,34 +2617,34 @@
         <v>38</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>5</v>
@@ -2727,11 +2712,11 @@
       <c r="AR13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AS13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT13" s="1" t="s">
+      <c r="AW13" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="AX13" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:50">
@@ -2742,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
@@ -2753,122 +2738,125 @@
       <c r="F14" s="1">
         <v>500</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1">
         <v>100</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="R14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV14" s="1" t="s">
-        <v>99</v>
+      <c r="AT14" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:50">
@@ -2879,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
@@ -2890,53 +2878,53 @@
       <c r="F15" s="1">
         <v>500</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1">
         <v>100</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="W15" s="1" t="s">
         <v>5</v>
@@ -3004,11 +2992,11 @@
       <c r="AR15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AU15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV15" s="1" t="s">
-        <v>98</v>
+      <c r="AW15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:50">
@@ -3019,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
@@ -3030,122 +3018,125 @@
       <c r="F16" s="1">
         <v>500</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1">
         <v>100</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="R16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX16" s="1" t="s">
-        <v>101</v>
-      </c>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3153,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
@@ -3164,122 +3155,119 @@
       <c r="F17" s="1">
         <v>500</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>100</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS17" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX17" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
